--- a/out.xlsx
+++ b/out.xlsx
@@ -5282,7 +5282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z305"/>
+  <dimension ref="A1:Z304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20519,7 +20519,6 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="305" spans="1:26"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
@@ -20863,13 +20862,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -20932,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -20965,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -21016,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
@@ -21153,31 +21152,31 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -21213,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -21240,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -21303,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
@@ -21345,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.2</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
@@ -21375,7 +21374,7 @@
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
@@ -21443,7 +21442,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -21452,13 +21451,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1004784688995215</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06698564593301436</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -21473,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2296650717703349</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -21482,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1674641148325359</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -21491,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -21500,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06698564593301436</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -21527,16 +21526,16 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0861244019138756</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.06698564593301436</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -21602,7 +21601,7 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -21698,7 +21697,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0861244019138756</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -21733,7 +21732,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -21748,22 +21747,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.6312849162011172</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2368421052631579</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -21772,13 +21771,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1105263157894737</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -21787,13 +21786,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -21820,16 +21819,16 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.07368421052631578</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -22023,7 +22022,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22041,13 +22040,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1373626373626374</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08241758241758242</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22065,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1153846153846154</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22083,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22110,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -22122,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1373626373626374</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -22131,7 +22130,7 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2197802197802198</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -22206,7 +22205,7 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
@@ -22313,7 +22312,7 @@
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22603,7 +22602,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -22627,10 +22626,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3181818181818182</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -22642,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1909090909090909</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -22720,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.1272727272727273</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -22893,7 +22892,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -22911,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -22941,7 +22940,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01948051948051948</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -22962,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -22980,7 +22979,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.06493506493506493</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -23001,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -23058,7 +23057,7 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="BG9" t="n">
         <v>0</v>
@@ -23106,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.1363636363636364</v>
+        <v>0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -23183,7 +23182,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23198,28 +23197,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2036199095022624</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1040723981900452</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2760180995475113</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2579185520361991</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02714932126696833</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -23342,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.08144796380090498</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -23387,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.04977375565610859</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
         <v>0</v>
@@ -23473,7 +23472,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>186.22</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23494,19 +23493,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.256578947368421</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2960526315789473</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.7664053270325422</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -23539,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07894736842105263</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -23554,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01973684210526316</v>
+        <v>0.1933197293523789</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -23569,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1381578947368421</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -23587,7 +23586,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -23626,7 +23625,7 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>0.04027494361507894</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
@@ -23734,10 +23733,10 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.01973684210526316</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
         <v>0</v>
@@ -23763,7 +23762,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23787,37 +23786,37 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3586206896551724</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23826,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1466666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23844,13 +23843,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -23868,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -23907,7 +23906,7 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
@@ -23916,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
@@ -23991,16 +23990,16 @@
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -24024,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
@@ -24053,10 +24052,10 @@
         <v>105</v>
       </c>
       <c r="C13" t="n">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231023102310231</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -24068,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.231023102310231</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -24077,10 +24076,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1881188118811881</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1287128712871287</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -24089,10 +24088,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09900990099009901</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -24107,13 +24106,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07260726072607261</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0297029702970297</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -24140,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -24343,7 +24342,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -24367,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2030456852791878</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2030456852791878</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -24382,13 +24381,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2385786802030457</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.3559322033898306</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1776649746192893</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -24397,10 +24396,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1065989847715736</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24427,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.03553299492385787</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03553299492385787</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -24502,13 +24501,13 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="BG14" t="n">
         <v>0</v>
@@ -24633,7 +24632,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -24651,16 +24650,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04895104895104895</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05594405594405594</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3426573426573427</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -24675,16 +24674,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1048951048951049</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04895104895104895</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -24693,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0979020979020979</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -24720,10 +24719,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2447552447552448</v>
+        <v>0.12</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -24792,7 +24791,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.04895104895104895</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -24909,10 +24908,10 @@
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.006993006993006993</v>
+        <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:96">
@@ -24923,10 +24922,10 @@
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06214689265536723</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -24944,16 +24943,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1186440677966102</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1186440677966102</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -24968,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07909604519774012</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1186440677966102</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.096045197740113</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1016949152542373</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24989,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02824858757062147</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -25040,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.07909604519774012</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -25064,7 +25063,7 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0903954802259887</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
         <v>0</v>
@@ -25088,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.02824858757062147</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -25100,7 +25099,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.07909604519774012</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -25213,7 +25212,7 @@
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -25234,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2127659574468085</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1914893617021277</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -25252,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3829787234042553</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -25264,16 +25263,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.3796791443850267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.2192513368983957</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -25300,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.2459893048128342</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -25465,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="CI17" t="n">
-        <v>0</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -25503,7 +25502,7 @@
         <v>105</v>
       </c>
       <c r="C18" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -25527,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -25542,34 +25541,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2681159420289855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.4195804195804196</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2028985507246377</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.108695652173913</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="W18" t="n">
-        <v>0.108695652173913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2028985507246377</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -25662,7 +25661,7 @@
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.108695652173913</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
@@ -25761,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0</v>
+        <v>0.08391608391608392</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -25793,7 +25792,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -25811,16 +25810,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2875816993464052</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09803921568627451</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -25829,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -25841,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09803921568627451</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03267973856209151</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2091503267973856</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -25952,7 +25951,7 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -26083,7 +26082,7 @@
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26101,16 +26100,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09259259259259259</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -26119,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -26143,10 +26142,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3240740740740741</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26200,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.2314814814814815</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -26302,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.09259259259259259</v>
+        <v>0</v>
       </c>
       <c r="BY20" t="n">
         <v>0</v>
@@ -26373,7 +26372,7 @@
         <v>105</v>
       </c>
       <c r="C21" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -26412,7 +26411,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -26436,13 +26435,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.6190476190476191</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -26490,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -26592,7 +26591,7 @@
         <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="BY21" t="n">
         <v>0</v>
@@ -26622,7 +26621,7 @@
         <v>0</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -26663,7 +26662,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -26681,13 +26680,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0155440414507772</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2746113989637305</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -26702,16 +26701,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07253886010362694</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1658031088082902</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0310880829015544</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1865284974093264</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -26729,10 +26728,10 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1813471502590674</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -26828,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.07253886010362694</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
         <v>0</v>
@@ -26953,13 +26952,13 @@
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -26971,13 +26970,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09333333333333334</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3533333333333333</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -27004,7 +27003,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09333333333333334</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -27019,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -27112,7 +27111,7 @@
         <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
         <v>0</v>
@@ -27243,7 +27242,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -27258,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -27285,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -27294,13 +27293,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -27309,7 +27308,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -27402,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="BE24" t="n">
         <v>0</v>
@@ -27533,7 +27532,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>170</v>
+        <v>183.5</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -27551,16 +27550,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.9455040871934606</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2705882352941177</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -27569,7 +27568,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1235294117647059</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -27578,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1235294117647059</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -27596,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01764705882352941</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -27614,7 +27613,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.005882352941176471</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -27623,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>0.05449591280653951</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -27653,7 +27652,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.1235294117647059</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -27662,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -27692,7 +27691,7 @@
         <v>0</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.005882352941176471</v>
+        <v>0</v>
       </c>
       <c r="BE25" t="n">
         <v>0</v>
@@ -27707,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.01176470588235294</v>
+        <v>0</v>
       </c>
       <c r="BJ25" t="n">
         <v>0</v>
@@ -27791,7 +27790,7 @@
         <v>0</v>
       </c>
       <c r="CK25" t="n">
-        <v>0.1411764705882353</v>
+        <v>0</v>
       </c>
       <c r="CL25" t="n">
         <v>0</v>
@@ -27823,10 +27822,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>189.5</v>
+        <v>177.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05277044854881267</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -27841,16 +27840,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2295514511873351</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1055408970976253</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -27859,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02638522427440633</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -27889,7 +27888,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05277044854881267</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -27910,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.2110817941952507</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -27919,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.1846965699208443</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -27931,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.079155672823219</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
@@ -27988,7 +27987,7 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.03693931398416887</v>
+        <v>0</v>
       </c>
       <c r="BG26" t="n">
         <v>0</v>
@@ -28039,7 +28038,7 @@
         <v>0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.02110817941952507</v>
+        <v>0</v>
       </c>
       <c r="BX26" t="n">
         <v>0</v>
@@ -28131,64 +28130,64 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -28403,7 +28402,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -28412,7 +28411,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2210526315789474</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -28427,13 +28426,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2789473684210526</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03684210526315789</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -28451,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.131578947368421</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -28463,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -28478,7 +28477,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -28502,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.03684210526315789</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -28586,7 +28585,7 @@
         <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.1105263157894737</v>
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -28693,7 +28692,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -28711,13 +28710,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1977401129943503</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1581920903954802</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -28735,10 +28734,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03954802259887006</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -28753,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1977401129943503</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -28762,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -28771,10 +28770,10 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -28864,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="BH29" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="BI29" t="n">
         <v>0</v>
@@ -28876,7 +28875,7 @@
         <v>0</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.1977401129943503</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -28951,13 +28950,13 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
       </c>
       <c r="CM29" t="n">
-        <v>0.1242937853107345</v>
+        <v>0</v>
       </c>
       <c r="CN29" t="n">
         <v>0</v>
@@ -28983,7 +28982,7 @@
         <v>51</v>
       </c>
       <c r="C30" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29001,16 +29000,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03684210526315789</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03684210526315789</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29019,28 +29018,28 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03684210526315789</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2157894736842105</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1105263157894737</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1105263157894737</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29052,7 +29051,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -29061,16 +29060,16 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.08421052631578947</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01578947368421053</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -29142,10 +29141,10 @@
         <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.131578947368421</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="BF30" t="n">
         <v>0</v>
@@ -29193,10 +29192,10 @@
         <v>0</v>
       </c>
       <c r="BU30" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="BV30" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BW30" t="n">
         <v>0</v>
@@ -29273,7 +29272,7 @@
         <v>105</v>
       </c>
       <c r="C31" t="n">
-        <v>124.45</v>
+        <v>160</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29291,13 +29290,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04821213338690237</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1687424668541583</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29306,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3169947770188831</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29324,10 +29323,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03214142225793491</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1205303334672559</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -29339,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -29348,7 +29347,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -29357,10 +29356,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.1687424668541583</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.1124949779027722</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -29390,7 +29389,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AQ31" t="n">
         <v>0</v>
@@ -29432,7 +29431,7 @@
         <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.03214142225793491</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
         <v>0</v>
@@ -29492,7 +29491,7 @@
         <v>0</v>
       </c>
       <c r="BX31" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="BY31" t="n">
         <v>0</v>
@@ -29563,16 +29562,16 @@
         <v>51</v>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04117647058823529</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04117647058823529</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29587,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.8427672955974843</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29611,7 +29610,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29626,10 +29625,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2470588235294118</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -29638,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.2058823529411765</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -29653,7 +29652,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -29743,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="BK32" t="n">
-        <v>0.04117647058823529</v>
+        <v>0</v>
       </c>
       <c r="BL32" t="n">
         <v>0</v>
@@ -29779,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="BW32" t="n">
-        <v>0.04117647058823529</v>
+        <v>0</v>
       </c>
       <c r="BX32" t="n">
         <v>0</v>
@@ -29853,7 +29852,7 @@
         <v>51</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29877,10 +29876,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2136363636363636</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3181818181818182</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29889,31 +29888,31 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02727272727272727</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2545454545454545</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.2372093023255814</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00909090909090909</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -30012,10 +30011,10 @@
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.01818181818181818</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="BF33" t="n">
         <v>0</v>
@@ -30120,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="CN33" t="n">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="CO33" t="n">
         <v>0</v>
@@ -30143,10 +30142,10 @@
         <v>51</v>
       </c>
       <c r="C34" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03723404255319149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -30164,13 +30163,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02127659574468085</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03723404255319149</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1170212765957447</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30179,22 +30178,22 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03723404255319149</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1595744680851064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1595744680851064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.8325123152709359</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01063829787234043</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30203,13 +30202,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1861702127659574</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.06382978723404255</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -30284,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="AY34" t="n">
         <v>0</v>
@@ -30359,7 +30358,7 @@
         <v>0</v>
       </c>
       <c r="BW34" t="n">
-        <v>0.02127659574468085</v>
+        <v>0</v>
       </c>
       <c r="BX34" t="n">
         <v>0</v>
@@ -30398,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -30410,7 +30409,7 @@
         <v>0</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="CO34" t="n">
         <v>0</v>
@@ -30433,7 +30432,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30457,10 +30456,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.261437908496732</v>
+        <v>0.1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30481,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2810457516339869</v>
+        <v>0.5785714285714285</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30529,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.2287581699346405</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -30595,10 +30594,10 @@
         <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>0.0457516339869281</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.1830065359477124</v>
+        <v>0</v>
       </c>
       <c r="BG35" t="n">
         <v>0</v>
@@ -30723,10 +30722,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30750,10 +30749,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -30771,7 +30770,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30804,7 +30803,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -30831,13 +30830,13 @@
         <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.1777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.1777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -30876,7 +30875,7 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BC36" t="n">
         <v>0</v>
@@ -30900,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="BK36" t="n">
         <v>0</v>
@@ -30984,10 +30983,10 @@
         <v>0</v>
       </c>
       <c r="CL36" t="n">
-        <v>0.07777777777777778</v>
+        <v>0</v>
       </c>
       <c r="CM36" t="n">
-        <v>0.1166666666666667</v>
+        <v>0</v>
       </c>
       <c r="CN36" t="n">
         <v>0</v>
@@ -31013,7 +31012,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -31034,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2315789473684211</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31043,7 +31042,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31055,10 +31054,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1684210526315789</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01578947368421053</v>
+        <v>0.2</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -31103,7 +31102,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -31166,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.1894736842105263</v>
+        <v>0</v>
       </c>
       <c r="BC37" t="n">
         <v>0</v>
@@ -31190,7 +31189,7 @@
         <v>0</v>
       </c>
       <c r="BJ37" t="n">
-        <v>0.2105263157894737</v>
+        <v>0</v>
       </c>
       <c r="BK37" t="n">
         <v>0</v>
@@ -31303,7 +31302,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="n">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31312,13 +31311,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02916666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31342,7 +31341,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.7431192660550459</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -31384,7 +31383,7 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.07083333333333333</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -31393,13 +31392,13 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.1458333333333333</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.1458333333333333</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -31420,7 +31419,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.1458333333333333</v>
+        <v>0</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -31456,10 +31455,10 @@
         <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.02916666666666667</v>
+        <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BD38" t="n">
         <v>0</v>
@@ -31510,7 +31509,7 @@
         <v>0</v>
       </c>
       <c r="BT38" t="n">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BU38" t="n">
         <v>0</v>
@@ -31593,7 +31592,7 @@
         <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -31602,10 +31601,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04390243902439024</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1268292682926829</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -31614,13 +31613,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4536585365853658</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.4702970297029703</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -31632,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1024390243902439</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -31656,7 +31655,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1707317073170732</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -31674,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -31686,10 +31685,10 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.1024390243902439</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -31752,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="BD39" t="n">
-        <v>0</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="BE39" t="n">
         <v>0</v>
@@ -31883,10 +31882,10 @@
         <v>51</v>
       </c>
       <c r="C40" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1700680272108843</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -31901,16 +31900,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.05</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31928,13 +31927,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.3357142857142857</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -31943,7 +31942,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31970,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -31985,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.06802721088435375</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
         <v>0</v>
@@ -32042,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="BE40" t="n">
         <v>0</v>
@@ -32173,7 +32172,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -32200,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1988636363636364</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -32224,22 +32223,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1590909090909091</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1704545454545454</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03977272727272727</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.1988636363636364</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -32263,13 +32262,13 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.1193181818181818</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
@@ -32425,7 +32424,7 @@
         <v>0</v>
       </c>
       <c r="CI41" t="n">
-        <v>0.03409090909090909</v>
+        <v>0</v>
       </c>
       <c r="CJ41" t="n">
         <v>0</v>
@@ -32452,7 +32451,7 @@
         <v>0</v>
       </c>
       <c r="CR41" t="n">
-        <v>0.07954545454545454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:96">
@@ -32463,7 +32462,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -32487,7 +32486,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -32505,22 +32504,22 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.6010928961748634</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2116402116402116</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1216931216931217</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -32532,7 +32531,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.1164021164021164</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -32553,13 +32552,13 @@
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="AH42" t="n">
         <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
@@ -32730,7 +32729,7 @@
         <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>0.08465608465608465</v>
+        <v>0</v>
       </c>
       <c r="CO42" t="n">
         <v>0</v>
@@ -32753,7 +32752,7 @@
         <v>51</v>
       </c>
       <c r="C43" t="n">
-        <v>181</v>
+        <v>247.36</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -32771,16 +32770,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1334087968952135</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1160220994475138</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2486187845303867</v>
+        <v>0.3612548512289779</v>
       </c>
       <c r="L43" t="n">
-        <v>0.07734806629834254</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -32810,16 +32809,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1657458563535912</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1933701657458564</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07734806629834254</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -32840,10 +32839,10 @@
         <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.07734806629834254</v>
+        <v>0.4608667529107373</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.04419889502762431</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -32957,7 +32956,7 @@
         <v>0</v>
       </c>
       <c r="BS43" t="n">
-        <v>0</v>
+        <v>0.04446959896507115</v>
       </c>
       <c r="BT43" t="n">
         <v>0</v>
@@ -33043,7 +33042,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="n">
-        <v>237.36</v>
+        <v>248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -33067,13 +33066,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2374452308729356</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05055611729019211</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -33082,7 +33081,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.168520390967307</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -33130,7 +33129,7 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.2275025278058645</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -33196,7 +33195,7 @@
         <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>0.0884732052578362</v>
+        <v>0</v>
       </c>
       <c r="BC44" t="n">
         <v>0</v>
@@ -33220,7 +33219,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" t="n">
-        <v>0.2275025278058645</v>
+        <v>0</v>
       </c>
       <c r="BK44" t="n">
         <v>0</v>
@@ -33333,7 +33332,7 @@
         <v>51</v>
       </c>
       <c r="C45" t="n">
-        <v>237.5</v>
+        <v>177</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -33351,19 +33350,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1873684210526316</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5010526315789474</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2526315789473684</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -33384,7 +33383,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02947368421052632</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -33432,7 +33431,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>0.3785310734463277</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
@@ -33492,7 +33491,7 @@
         <v>0</v>
       </c>
       <c r="BD45" t="n">
-        <v>0.02947368421052632</v>
+        <v>0</v>
       </c>
       <c r="BE45" t="n">
         <v>0</v>
@@ -33516,7 +33515,7 @@
         <v>0</v>
       </c>
       <c r="BL45" t="n">
-        <v>0</v>
+        <v>0.5141242937853108</v>
       </c>
       <c r="BM45" t="n">
         <v>0</v>
@@ -33623,7 +33622,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -33650,7 +33649,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.15</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -33671,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01428571428571429</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -33692,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -33713,7 +33712,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -33722,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
         <v>0</v>
@@ -33731,7 +33730,7 @@
         <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
@@ -33740,7 +33739,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -33937,10 +33936,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1103448275862069</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3448275862068965</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -33955,32 +33954,32 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="Y47" t="n">
         <v>0.09655172413793103</v>
       </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
@@ -34000,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -34015,145 +34014,145 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.1241379310344828</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
         <v>0.04827586206896552</v>
       </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD47" t="n">
+      <c r="BH47" t="n">
+        <v>0.07586206896551724</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE47" t="n">
         <v>0.02758620689655172</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>0.02068965517241379</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ47" t="n">
-        <v>0.1448275862068966</v>
-      </c>
-      <c r="CA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE47" t="n">
-        <v>0</v>
       </c>
       <c r="CF47" t="n">
         <v>0</v>
@@ -34203,7 +34202,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -34227,10 +34226,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.14</v>
+        <v>0.03750000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1866666666666667</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -34245,13 +34244,13 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="S48" t="n">
-        <v>0.09333333333333334</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -34266,13 +34265,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.01875</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.04666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -34305,10 +34304,10 @@
         <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="AM48" t="n">
         <v>0</v>
@@ -34362,7 +34361,7 @@
         <v>0</v>
       </c>
       <c r="BD48" t="n">
-        <v>0</v>
+        <v>0.04375</v>
       </c>
       <c r="BE48" t="n">
         <v>0</v>
@@ -34389,7 +34388,7 @@
         <v>0</v>
       </c>
       <c r="BM48" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="BN48" t="n">
         <v>0</v>
@@ -34428,7 +34427,7 @@
         <v>0</v>
       </c>
       <c r="BZ48" t="n">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="CA48" t="n">
         <v>0</v>
@@ -34470,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="CN48" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CO48" t="n">
         <v>0</v>
@@ -34493,7 +34492,7 @@
         <v>160</v>
       </c>
       <c r="C49" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -34517,10 +34516,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -34538,7 +34537,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -34556,10 +34555,10 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -34595,13 +34594,13 @@
         <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.05833333333333333</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.2916666666666667</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
@@ -34619,10 +34618,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -34709,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="BW49" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BX49" t="n">
         <v>0</v>
@@ -34736,7 +34735,7 @@
         <v>0</v>
       </c>
       <c r="CF49" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -34810,244 +34809,244 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2923976608187134</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
         <v>0.2514619883040936</v>
       </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.4152046783625731</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL50" t="n">
         <v>0.08187134502923976</v>
       </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0.3099415204678362</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0.01169590643274854</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL50" t="n">
-        <v>0</v>
-      </c>
       <c r="CM50" t="n">
-        <v>0</v>
+        <v>0.2514619883040936</v>
       </c>
       <c r="CN50" t="n">
         <v>0</v>
@@ -35073,7 +35072,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="n">
-        <v>140.77</v>
+        <v>140</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -35100,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02841514527243021</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2221353981672232</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -35124,10 +35123,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -35154,7 +35153,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.1989060169070115</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -35169,7 +35168,7 @@
         <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.2486325211337643</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
@@ -35181,7 +35180,7 @@
         <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.2486325211337643</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
@@ -35226,7 +35225,7 @@
         <v>0</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.05327839738580664</v>
+        <v>0</v>
       </c>
       <c r="BC51" t="n">
         <v>0</v>
@@ -35363,7 +35362,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -35378,7 +35377,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1891891891891892</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -35387,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -35402,19 +35401,19 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0.03783783783783784</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08648648648648649</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1891891891891892</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -35438,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.1351351351351351</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -35480,7 +35479,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="AQ52" t="n">
         <v>0</v>
@@ -35576,7 +35575,7 @@
         <v>0</v>
       </c>
       <c r="BV52" t="n">
-        <v>0</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="BW52" t="n">
         <v>0</v>
@@ -35630,7 +35629,7 @@
         <v>0</v>
       </c>
       <c r="CN52" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="CO52" t="n">
         <v>0</v>
@@ -35653,7 +35652,7 @@
         <v>160</v>
       </c>
       <c r="C53" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -35665,7 +35664,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -35674,13 +35673,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -35692,7 +35691,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -35701,7 +35700,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -35710,13 +35709,13 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.25</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -35743,7 +35742,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -35815,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="BF53" t="n">
         <v>0</v>
@@ -35845,13 +35844,13 @@
         <v>0</v>
       </c>
       <c r="BO53" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BP53" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="BR53" t="n">
         <v>0</v>
@@ -35899,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="CG53" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="CH53" t="n">
         <v>0</v>
@@ -35943,7 +35942,7 @@
         <v>160</v>
       </c>
       <c r="C54" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -35967,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -35985,13 +35984,13 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1805555555555556</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06944444444444445</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -36000,13 +35999,13 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -36027,7 +36026,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -36039,7 +36038,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="AJ54" t="n">
         <v>0</v>
@@ -36048,13 +36047,13 @@
         <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.01388888888888889</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="AO54" t="n">
         <v>0</v>
@@ -36081,7 +36080,7 @@
         <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.006944444444444444</v>
+        <v>0</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
@@ -36108,7 +36107,7 @@
         <v>0</v>
       </c>
       <c r="BF54" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="BG54" t="n">
         <v>0</v>
@@ -36132,7 +36131,7 @@
         <v>0</v>
       </c>
       <c r="BN54" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="BO54" t="n">
         <v>0</v>
@@ -36159,7 +36158,7 @@
         <v>0</v>
       </c>
       <c r="BW54" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BX54" t="n">
         <v>0</v>
@@ -36213,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="CO54" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="CP54" t="n">
         <v>0</v>
@@ -36233,7 +36232,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="n">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -36257,10 +36256,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1141304347826087</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -36269,25 +36268,25 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1141304347826087</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1902173913043478</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.07608695652173914</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.08152173913043478</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -36296,10 +36295,10 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.05434782608695652</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -36320,13 +36319,13 @@
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -36335,13 +36334,13 @@
         <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.07608695652173914</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
@@ -36419,7 +36418,7 @@
         <v>0</v>
       </c>
       <c r="BM55" t="n">
-        <v>0.03804347826086957</v>
+        <v>0</v>
       </c>
       <c r="BN55" t="n">
         <v>0</v>
@@ -36491,7 +36490,7 @@
         <v>0</v>
       </c>
       <c r="CK55" t="n">
-        <v>0.06521739130434782</v>
+        <v>0</v>
       </c>
       <c r="CL55" t="n">
         <v>0</v>
@@ -36523,10 +36522,10 @@
         <v>32</v>
       </c>
       <c r="C56" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -36535,7 +36534,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1822916666666667</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -36547,16 +36546,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3645833333333333</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.15625</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -36589,7 +36588,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -36604,13 +36603,13 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.03645833333333334</v>
+        <v>0.04395604395604395</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05208333333333334</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
         <v>0</v>
@@ -36631,13 +36630,13 @@
         <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.15625</v>
+        <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>0.3351648351648351</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP56" t="n">
         <v>0</v>
@@ -36784,10 +36783,10 @@
         <v>0</v>
       </c>
       <c r="CL56" t="n">
-        <v>0</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="CM56" t="n">
-        <v>0</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="CN56" t="n">
         <v>0</v>
@@ -36813,10 +36812,10 @@
         <v>51</v>
       </c>
       <c r="C57" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04635761589403974</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -36825,7 +36824,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04635761589403974</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -36834,16 +36833,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.8936170212765958</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1390728476821192</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -36876,10 +36875,10 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.3576158940397351</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.03311258278145696</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -36894,7 +36893,7 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.01986754966887417</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -36924,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.1655629139072848</v>
+        <v>0</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.006622516556291391</v>
+        <v>0</v>
       </c>
       <c r="AP57" t="n">
         <v>0</v>
@@ -36966,7 +36965,7 @@
         <v>0</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.09271523178807947</v>
+        <v>0</v>
       </c>
       <c r="BC57" t="n">
         <v>0</v>
@@ -36975,7 +36974,7 @@
         <v>0</v>
       </c>
       <c r="BE57" t="n">
-        <v>0.04635761589403974</v>
+        <v>0</v>
       </c>
       <c r="BF57" t="n">
         <v>0</v>
@@ -37059,7 +37058,7 @@
         <v>0</v>
       </c>
       <c r="CG57" t="n">
-        <v>0.04635761589403974</v>
+        <v>0</v>
       </c>
       <c r="CH57" t="n">
         <v>0</v>
@@ -37103,19 +37102,19 @@
         <v>160</v>
       </c>
       <c r="C58" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04794520547945205</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -37124,10 +37123,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04794520547945205</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1917808219178082</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -37148,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1164383561643836</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -37166,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.5857142857142856</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.1027397260273973</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -37184,7 +37183,7 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.0273972602739726</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -37220,13 +37219,13 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="AS58" t="n">
         <v>0</v>
@@ -37262,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>0.0958904109589041</v>
+        <v>0</v>
       </c>
       <c r="BE58" t="n">
         <v>0</v>
@@ -37283,7 +37282,7 @@
         <v>0</v>
       </c>
       <c r="BK58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BL58" t="n">
         <v>0</v>
@@ -37295,7 +37294,7 @@
         <v>0</v>
       </c>
       <c r="BO58" t="n">
-        <v>0.1438356164383562</v>
+        <v>0</v>
       </c>
       <c r="BP58" t="n">
         <v>0</v>
@@ -37325,22 +37324,22 @@
         <v>0</v>
       </c>
       <c r="BY58" t="n">
-        <v>0.04794520547945205</v>
+        <v>0</v>
       </c>
       <c r="BZ58" t="n">
         <v>0</v>
       </c>
       <c r="CA58" t="n">
-        <v>0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="CB58" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="CC58" t="n">
-        <v>0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="CD58" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="CE58" t="n">
         <v>0</v>
@@ -37393,7 +37392,7 @@
         <v>160</v>
       </c>
       <c r="C59" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -37402,7 +37401,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -37414,10 +37413,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.267379679144385</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0160427807486631</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -37432,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0374331550802139</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -37456,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4171122994652406</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -37483,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.0267379679144385</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -37498,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.0213903743315508</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="AM59" t="n">
         <v>0</v>
@@ -37510,25 +37509,25 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.0374331550802139</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.0374331550802139</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="AR59" t="n">
-        <v>0.0160427807486631</v>
+        <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>0</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="AT59" t="n">
-        <v>0</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="AU59" t="n">
-        <v>0</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="AV59" t="n">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -37564,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="BH59" t="n">
-        <v>0.0374331550802139</v>
+        <v>0</v>
       </c>
       <c r="BI59" t="n">
-        <v>0</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="BJ59" t="n">
         <v>0</v>
@@ -37591,7 +37590,7 @@
         <v>0</v>
       </c>
       <c r="BQ59" t="n">
-        <v>0.0427807486631016</v>
+        <v>0</v>
       </c>
       <c r="BR59" t="n">
         <v>0</v>
@@ -37609,7 +37608,7 @@
         <v>0</v>
       </c>
       <c r="BW59" t="n">
-        <v>0</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="BX59" t="n">
         <v>0</v>
@@ -37633,10 +37632,10 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
-        <v>0.0213903743315508</v>
+        <v>0</v>
       </c>
       <c r="CF59" t="n">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="CG59" t="n">
         <v>0</v>
@@ -37663,10 +37662,10 @@
         <v>0</v>
       </c>
       <c r="CO59" t="n">
-        <v>0.0213903743315508</v>
+        <v>0</v>
       </c>
       <c r="CP59" t="n">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="CQ59" t="n">
         <v>0</v>
@@ -37683,7 +37682,7 @@
         <v>160</v>
       </c>
       <c r="C60" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -37746,10 +37745,10 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.2281879194630873</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1140939597315436</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -37794,34 +37793,34 @@
         <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.02684563758389262</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.09395973154362416</v>
+        <v>0</v>
       </c>
       <c r="AP60" t="n">
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.1409395973154362</v>
+        <v>0</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.1006711409395973</v>
+        <v>0</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.2013422818791946</v>
+        <v>0</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.01342281879194631</v>
+        <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.02013422818791946</v>
+        <v>0</v>
       </c>
       <c r="AW60" t="n">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="AX60" t="n">
         <v>0</v>
@@ -37857,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="BI60" t="n">
-        <v>0.01342281879194631</v>
+        <v>0</v>
       </c>
       <c r="BJ60" t="n">
         <v>0</v>
@@ -37884,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="BR60" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="BS60" t="n">
         <v>0</v>
@@ -37911,13 +37910,13 @@
         <v>0</v>
       </c>
       <c r="CA60" t="n">
-        <v>0.01342281879194631</v>
+        <v>0</v>
       </c>
       <c r="CB60" t="n">
-        <v>0.01342281879194631</v>
+        <v>0</v>
       </c>
       <c r="CC60" t="n">
-        <v>0.02013422818791946</v>
+        <v>0</v>
       </c>
       <c r="CD60" t="n">
         <v>0</v>
@@ -37973,10 +37972,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -37997,7 +37996,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0352112676056338</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -38009,22 +38008,22 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.07042253521126761</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1408450704225352</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.007042253521126761</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -38036,13 +38035,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.3450704225352113</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.2464788732394366</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
@@ -38060,7 +38059,7 @@
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.04225352112676056</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
         <v>0</v>
@@ -38111,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="AW61" t="n">
-        <v>0.007042253521126761</v>
+        <v>0</v>
       </c>
       <c r="AX61" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="AY61" t="n">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="AZ61" t="n">
         <v>0</v>
@@ -38132,19 +38131,19 @@
         <v>0</v>
       </c>
       <c r="BD61" t="n">
-        <v>0.02816901408450704</v>
+        <v>0</v>
       </c>
       <c r="BE61" t="n">
         <v>0</v>
       </c>
       <c r="BF61" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="BG61" t="n">
-        <v>0.04929577464788732</v>
+        <v>0</v>
       </c>
       <c r="BH61" t="n">
-        <v>0.02816901408450704</v>
+        <v>0</v>
       </c>
       <c r="BI61" t="n">
         <v>0</v>
@@ -38189,7 +38188,7 @@
         <v>0</v>
       </c>
       <c r="BW61" t="n">
-        <v>0</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="BX61" t="n">
         <v>0</v>
@@ -38263,16 +38262,16 @@
         <v>32</v>
       </c>
       <c r="C62" t="n">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03827751196172249</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03349282296650718</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -38299,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -38308,7 +38307,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0.04784688995215311</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -38326,10 +38325,10 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0.1100478468899522</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1483253588516746</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
@@ -38344,10 +38343,10 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -38359,22 +38358,22 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.09569377990430622</v>
+        <v>0</v>
       </c>
       <c r="AL62" t="n">
-        <v>0.07177033492822966</v>
+        <v>0</v>
       </c>
       <c r="AM62" t="n">
         <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
         <v>0</v>
@@ -38383,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.07177033492822966</v>
+        <v>0</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -38404,16 +38403,16 @@
         <v>0</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.03827751196172249</v>
+        <v>0</v>
       </c>
       <c r="AY62" t="n">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="BB62" t="n">
         <v>0</v>
@@ -38422,7 +38421,7 @@
         <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
         <v>0</v>
@@ -38434,7 +38433,7 @@
         <v>0</v>
       </c>
       <c r="BH62" t="n">
-        <v>0.1531100478468899</v>
+        <v>0</v>
       </c>
       <c r="BI62" t="n">
         <v>0</v>
@@ -38452,13 +38451,13 @@
         <v>0</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="BO62" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="BP62" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="BQ62" t="n">
         <v>0</v>
@@ -38488,7 +38487,7 @@
         <v>0</v>
       </c>
       <c r="BZ62" t="n">
-        <v>0.07177033492822966</v>
+        <v>0</v>
       </c>
       <c r="CA62" t="n">
         <v>0</v>
@@ -38536,7 +38535,7 @@
         <v>0</v>
       </c>
       <c r="CP62" t="n">
-        <v>0.01435406698564593</v>
+        <v>0</v>
       </c>
       <c r="CQ62" t="n">
         <v>0</v>
@@ -38553,7 +38552,7 @@
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -38562,13 +38561,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -38583,16 +38582,16 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04605263157894737</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.05</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -38607,7 +38606,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -38634,7 +38633,7 @@
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>0.5428571428571429</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -38658,7 +38657,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="AM63" t="n">
         <v>0</v>
@@ -38670,7 +38669,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.09210526315789473</v>
+        <v>0</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -38700,16 +38699,16 @@
         <v>0</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.1381578947368421</v>
+        <v>0</v>
       </c>
       <c r="BA63" t="n">
-        <v>0.1381578947368421</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="BC63" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="BD63" t="n">
         <v>0</v>
@@ -38736,7 +38735,7 @@
         <v>0</v>
       </c>
       <c r="BL63" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="BM63" t="n">
         <v>0</v>
@@ -38772,10 +38771,10 @@
         <v>0</v>
       </c>
       <c r="BX63" t="n">
-        <v>0.04605263157894737</v>
+        <v>0</v>
       </c>
       <c r="BY63" t="n">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="BZ63" t="n">
         <v>0</v>
@@ -38814,7 +38813,7 @@
         <v>0</v>
       </c>
       <c r="CL63" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="CM63" t="n">
         <v>0</v>
@@ -38843,7 +38842,7 @@
         <v>51</v>
       </c>
       <c r="C64" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -38864,13 +38863,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -38882,22 +38881,22 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -39119,7 +39118,7 @@
         <v>0</v>
       </c>
       <c r="CQ64" t="n">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="CR64" t="n">
         <v>0</v>
@@ -39133,7 +39132,7 @@
         <v>51</v>
       </c>
       <c r="C65" t="n">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -39157,7 +39156,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1454545454545454</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -39172,7 +39171,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0.03636363636363636</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -39187,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0.1272727272727273</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -39340,7 +39339,7 @@
         <v>0</v>
       </c>
       <c r="BT65" t="n">
-        <v>0.6909090909090909</v>
+        <v>0</v>
       </c>
       <c r="BU65" t="n">
         <v>0</v>
@@ -39423,7 +39422,7 @@
         <v>160</v>
       </c>
       <c r="C66" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -39450,10 +39449,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4083333333333333</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -39471,7 +39470,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -39486,7 +39485,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0.275</v>
+        <v>0.9489795918367347</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -39561,7 +39560,7 @@
         <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AX66" t="n">
         <v>0</v>
@@ -39624,7 +39623,7 @@
         <v>0</v>
       </c>
       <c r="BR66" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BS66" t="n">
         <v>0</v>
@@ -39672,7 +39671,7 @@
         <v>0</v>
       </c>
       <c r="CH66" t="n">
-        <v>0</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="CI66" t="n">
         <v>0</v>
@@ -39713,7 +39712,7 @@
         <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -39737,13 +39736,13 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.3096446700507614</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -39752,7 +39751,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.284263959390863</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -39767,16 +39766,16 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0.198581560283688</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0.2482269503546099</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -39851,7 +39850,7 @@
         <v>0</v>
       </c>
       <c r="AW67" t="n">
-        <v>0.007092198581560284</v>
+        <v>0</v>
       </c>
       <c r="AX67" t="n">
         <v>0</v>
@@ -39872,7 +39871,7 @@
         <v>0</v>
       </c>
       <c r="BD67" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="BE67" t="n">
         <v>0</v>
@@ -39890,7 +39889,7 @@
         <v>0</v>
       </c>
       <c r="BJ67" t="n">
-        <v>0</v>
+        <v>0.4060913705583756</v>
       </c>
       <c r="BK67" t="n">
         <v>0</v>
@@ -39923,10 +39922,10 @@
         <v>0</v>
       </c>
       <c r="BU67" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="BV67" t="n">
-        <v>0.04964539007092199</v>
+        <v>0</v>
       </c>
       <c r="BW67" t="n">
         <v>0</v>
@@ -40003,7 +40002,7 @@
         <v>51</v>
       </c>
       <c r="C68" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -40018,16 +40017,16 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.04964539007092199</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.486111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -40054,7 +40053,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -40084,22 +40083,22 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.07801418439716312</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.1134751773049645</v>
+        <v>0</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.2482269503546099</v>
+        <v>0</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.1134751773049645</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -40156,13 +40155,13 @@
         <v>0</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.09929078014184398</v>
+        <v>0</v>
       </c>
       <c r="BC68" t="n">
         <v>0</v>
       </c>
       <c r="BD68" t="n">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="BE68" t="n">
         <v>0</v>
@@ -40225,7 +40224,7 @@
         <v>0</v>
       </c>
       <c r="BY68" t="n">
-        <v>0.02127659574468085</v>
+        <v>0</v>
       </c>
       <c r="BZ68" t="n">
         <v>0</v>
@@ -40293,7 +40292,7 @@
         <v>51</v>
       </c>
       <c r="C69" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -40311,13 +40310,13 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.131578947368421</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6578947368421053</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -40344,7 +40343,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -40452,7 +40451,7 @@
         <v>0</v>
       </c>
       <c r="BD69" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="BE69" t="n">
         <v>0</v>
@@ -40583,7 +40582,7 @@
         <v>51</v>
       </c>
       <c r="C70" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -40607,10 +40606,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L70" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -40625,13 +40624,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2413793103448276</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -40652,7 +40651,7 @@
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="AA70" t="n">
         <v>0</v>
@@ -40873,7 +40872,7 @@
         <v>722</v>
       </c>
       <c r="C71" t="n">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -40891,7 +40890,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2608695652173913</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -40903,7 +40902,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.391304347826087</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -40927,13 +40926,13 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>0.03478260869565217</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0.008695652173913044</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -40942,7 +40941,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.3043478260869565</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
@@ -41080,7 +41079,7 @@
         <v>0</v>
       </c>
       <c r="BT71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU71" t="n">
         <v>0</v>
@@ -41163,7 +41162,7 @@
         <v>51</v>
       </c>
       <c r="C72" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -41190,7 +41189,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.4705882352941176</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -41250,7 +41249,7 @@
         <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.4705882352941176</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
         <v>0</v>
@@ -41271,7 +41270,7 @@
         <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="AN72" t="n">
         <v>0</v>
@@ -41453,10 +41452,10 @@
         <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -41468,7 +41467,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -41495,13 +41494,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.2777777777777778</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
